--- a/data/trans_dic/P17G_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.01292975410677912</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.004805707037824431</v>
+        <v>0.004805707037824432</v>
       </c>
     </row>
     <row r="5">
@@ -711,37 +711,37 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.002953595386053935</v>
+        <v>0.003057415682308071</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002906181371777653</v>
+        <v>0.002895011446415512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0006592981883497815</v>
+        <v>0.0006577349287324736</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.004534983252821923</v>
+        <v>0.005447451498708985</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.001439014830237098</v>
+        <v>0.001428832521322125</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.009531576033483889</v>
+        <v>0.008977545558784826</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.002839295087935885</v>
+        <v>0.003002552429777023</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.003418711675008747</v>
+        <v>0.00351136343956064</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0029540439246771</v>
+        <v>0.003033405598323221</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.007321404103713073</v>
+        <v>0.007328947494526869</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.002913901893713015</v>
+        <v>0.002664407180996485</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.009425467132236215</v>
+        <v>0.009575510745304322</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0177629340861465</v>
+        <v>0.01832894633858248</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01680727962834452</v>
+        <v>0.01702374105356418</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01259358537904087</v>
+        <v>0.01073854140094237</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02214453003993852</v>
+        <v>0.02273420285581872</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01349787622672025</v>
+        <v>0.01321344109414922</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03143231983930388</v>
+        <v>0.03276293285096185</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01029658119268204</v>
+        <v>0.01028969252682289</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01311921812911426</v>
+        <v>0.01289532028040215</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01193149057295733</v>
+        <v>0.0125072716042936</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02082690813392168</v>
+        <v>0.0198834420135143</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.009489825384419927</v>
+        <v>0.008293114664453753</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.006063156477763981</v>
+        <v>0.005257319320784735</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006213648546490588</v>
+        <v>0.006145861347185218</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01395561740143979</v>
+        <v>0.01383308470350147</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01308896188156163</v>
+        <v>0.01395870806122592</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01232545317640979</v>
+        <v>0.0126756011721147</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.00827389302629713</v>
+        <v>0.007867304952247939</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.00685814747620983</v>
+        <v>0.006775147213312103</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01079812126146701</v>
+        <v>0.01147310655379496</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01055486156014658</v>
+        <v>0.01085667610966971</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.008742248305781002</v>
+        <v>0.008916446223319734</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01223150550213172</v>
+        <v>0.01194310553865907</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01394827656021723</v>
+        <v>0.01416868758480898</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02015519146254985</v>
+        <v>0.02069282276713807</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02340024428780771</v>
+        <v>0.02425364575874837</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03359593928407639</v>
+        <v>0.03451861731725309</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03408335165426572</v>
+        <v>0.03618158057224655</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03269053132587926</v>
+        <v>0.03278231441741469</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.0245139737475747</v>
+        <v>0.02492221655213208</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0215185928228112</v>
+        <v>0.02143798203122459</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02445948783359631</v>
+        <v>0.02532264030794344</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02327273883284249</v>
+        <v>0.02309856825681044</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0199372200796831</v>
+        <v>0.02121698076324033</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.024906769113857</v>
+        <v>0.02516992408447111</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02632509635382234</v>
+        <v>0.02664619377594514</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01317271210453036</v>
+        <v>0.01289474551945908</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006957258333097225</v>
+        <v>0.007994152081284315</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005652964815285165</v>
+        <v>0.004821379628121562</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01192467354243456</v>
+        <v>0.01203002354833318</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01120356578554936</v>
+        <v>0.01085704520267329</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003912132563864358</v>
+        <v>0.003686562986590184</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009765623170226301</v>
+        <v>0.009539198508271059</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01805196748599502</v>
+        <v>0.01816487070215648</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01515409751724042</v>
+        <v>0.01457626938065575</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.006889115994035461</v>
+        <v>0.00732884643313738</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.00895576518756787</v>
+        <v>0.009011566720270063</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01717313496691338</v>
+        <v>0.01759103258235342</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03887209349538406</v>
+        <v>0.03898753304183878</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02779952822735637</v>
+        <v>0.02827725041914576</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02422357902458227</v>
+        <v>0.02322935566429233</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03656745272732163</v>
+        <v>0.03732893358257539</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03436472474651756</v>
+        <v>0.03195722125234867</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02189113301919416</v>
+        <v>0.01889765430943774</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02955436071749566</v>
+        <v>0.02896912043224844</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03928979089781818</v>
+        <v>0.03770173434755648</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03261206160879868</v>
+        <v>0.03175062286410837</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01848230996578652</v>
+        <v>0.0195515535407419</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02173223584426898</v>
+        <v>0.02159135939013502</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03330038110427226</v>
+        <v>0.03310573247669352</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.02675579753560101</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.02158093389043046</v>
+        <v>0.02158093389043047</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.01282732371642719</v>
@@ -1105,7 +1105,7 @@
         <v>0.02621038694625955</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.02976162646323602</v>
+        <v>0.02976162646323603</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01092173223195725</v>
+        <v>0.01209269399167067</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007922549635655609</v>
+        <v>0.007958854941509722</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01687979223594648</v>
+        <v>0.01684794160326241</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01401864503966571</v>
+        <v>0.01366572463992242</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.007589758812574228</v>
+        <v>0.00714877502479168</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0102122847080358</v>
+        <v>0.01045583216931009</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01749945371749799</v>
+        <v>0.01675696270750309</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02768753187272335</v>
+        <v>0.02839143129219326</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01076018152952681</v>
+        <v>0.01082106528731986</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01066792775162805</v>
+        <v>0.01102254249493216</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01924876861872225</v>
+        <v>0.01933195902487942</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02359642704482867</v>
+        <v>0.02374176906443035</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02934783895041562</v>
+        <v>0.03056609188108238</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02619493611023269</v>
+        <v>0.02468787649564588</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03945577862239429</v>
+        <v>0.03932926409894948</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03298543164909234</v>
+        <v>0.03152367079511695</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02142203631709562</v>
+        <v>0.0212347728403609</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02683374807835459</v>
+        <v>0.02934672655654639</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03880508178939341</v>
+        <v>0.03963759143566219</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04911731931064288</v>
+        <v>0.04862758184463538</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02245306552851684</v>
+        <v>0.02220391820941654</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0230517857824732</v>
+        <v>0.02269614638495665</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03411497098368489</v>
+        <v>0.03522133794050077</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03709231500904793</v>
+        <v>0.03775456714395332</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01040876009690163</v>
+        <v>0.01050007968090489</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.009346928317032457</v>
+        <v>0.009165293960627305</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0137726205145387</v>
+        <v>0.01411167687498522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01383488945828351</v>
+        <v>0.01340367158791818</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01187234438377257</v>
+        <v>0.01222716808264533</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.008934788260747473</v>
+        <v>0.008804871788197065</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.01423236912651299</v>
+        <v>0.01395718901827924</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01882350420284923</v>
+        <v>0.01868006419978694</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01228649801512709</v>
+        <v>0.0124731425584303</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01030473215621848</v>
+        <v>0.009931310540862836</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01494950254600299</v>
+        <v>0.01505905919761619</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01724921821579515</v>
+        <v>0.01759046219607625</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01880544140780325</v>
+        <v>0.01909775885376024</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.01782084155155628</v>
+        <v>0.01768969829193057</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02308876150421301</v>
+        <v>0.02345423144551749</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02353386828676792</v>
+        <v>0.02346778189691819</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0210829211882431</v>
+        <v>0.02153900608299412</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01680885720677698</v>
+        <v>0.01721849921532371</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.02376821947388872</v>
+        <v>0.02398525005606423</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02766206675885786</v>
+        <v>0.02730363209486178</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01837811888399054</v>
+        <v>0.01850212570741089</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0160197280193046</v>
+        <v>0.01543900060234787</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02226225177121745</v>
+        <v>0.02212880349133691</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02380772428769627</v>
+        <v>0.02418576094138528</v>
       </c>
     </row>
     <row r="19">
@@ -1603,37 +1603,37 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2065</v>
+        <v>2137</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1947</v>
+        <v>1939</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3122</v>
+        <v>3750</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6374</v>
+        <v>6004</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2078</v>
+        <v>2198</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4726</v>
+        <v>4854</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4101</v>
+        <v>4211</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>9801</v>
+        <v>9811</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4146</v>
+        <v>3791</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6541</v>
+        <v>6646</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12417</v>
+        <v>12813</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11259</v>
+        <v>11404</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8699</v>
+        <v>7417</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15243</v>
+        <v>15649</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9303</v>
+        <v>9107</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21021</v>
+        <v>21911</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>7538</v>
+        <v>7532</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>18136</v>
+        <v>17826</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>16564</v>
+        <v>17363</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>27881</v>
+        <v>26618</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>13502</v>
+        <v>11799</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5815</v>
+        <v>5042</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6293</v>
+        <v>6224</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>14199</v>
+        <v>14074</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>13729</v>
+        <v>14642</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11924</v>
+        <v>12262</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8482</v>
+        <v>8065</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7100</v>
+        <v>7014</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>11553</v>
+        <v>12275</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>20334</v>
+        <v>20916</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>17816</v>
+        <v>18171</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>25108</v>
+        <v>24516</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>29554</v>
+        <v>30021</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19331</v>
+        <v>19847</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>23699</v>
+        <v>24564</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>34182</v>
+        <v>35121</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>35751</v>
+        <v>37951</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>31625</v>
+        <v>31713</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>25130</v>
+        <v>25549</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>22278</v>
+        <v>22194</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>26169</v>
+        <v>27093</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>44835</v>
+        <v>44500</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>40631</v>
+        <v>43239</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>51127</v>
+        <v>51667</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>55778</v>
+        <v>56459</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>8915</v>
+        <v>8727</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5222</v>
+        <v>6001</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4288</v>
+        <v>3657</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>9566</v>
+        <v>9650</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>7661</v>
+        <v>7424</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3028</v>
+        <v>2854</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7637</v>
+        <v>7460</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14663</v>
+        <v>14755</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>20619</v>
+        <v>19833</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>10504</v>
+        <v>11175</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>13797</v>
+        <v>13883</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>27725</v>
+        <v>28399</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>26307</v>
+        <v>26385</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20868</v>
+        <v>21226</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18374</v>
+        <v>17620</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>29333</v>
+        <v>29944</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23500</v>
+        <v>21854</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16946</v>
+        <v>14629</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23111</v>
+        <v>22654</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>31913</v>
+        <v>30624</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>44372</v>
+        <v>43200</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>28181</v>
+        <v>29811</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>33479</v>
+        <v>33262</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>53761</v>
+        <v>53447</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10272</v>
+        <v>11373</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>7440</v>
+        <v>7474</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15811</v>
+        <v>15781</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13870</v>
+        <v>13521</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7875</v>
+        <v>7418</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>10618</v>
+        <v>10871</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18141</v>
+        <v>17371</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>30911</v>
+        <v>31697</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>21285</v>
+        <v>21405</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>21110</v>
+        <v>21812</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>37984</v>
+        <v>38148</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>49690</v>
+        <v>49996</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>27601</v>
+        <v>28747</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>24600</v>
+        <v>23185</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36957</v>
+        <v>36838</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32636</v>
+        <v>31189</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>22228</v>
+        <v>22033</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>27899</v>
+        <v>30512</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>40227</v>
+        <v>41090</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>54836</v>
+        <v>54289</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>44414</v>
+        <v>43921</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>45615</v>
+        <v>44911</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>67319</v>
+        <v>69502</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>78110</v>
+        <v>79504</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>34041</v>
+        <v>34339</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>31794</v>
+        <v>31176</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>46587</v>
+        <v>47734</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>48854</v>
+        <v>47331</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>40095</v>
+        <v>41293</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>31524</v>
+        <v>31065</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>50136</v>
+        <v>49167</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>70223</v>
+        <v>69688</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>81675</v>
+        <v>82916</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>71409</v>
+        <v>68822</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>103230</v>
+        <v>103987</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>125261</v>
+        <v>127739</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>61501</v>
+        <v>62457</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>60619</v>
+        <v>60173</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>78099</v>
+        <v>79335</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>83103</v>
+        <v>82869</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>71201</v>
+        <v>72741</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>59305</v>
+        <v>60750</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>83728</v>
+        <v>84493</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>103197</v>
+        <v>101860</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>122170</v>
+        <v>122994</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>111013</v>
+        <v>106989</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>153726</v>
+        <v>152805</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>172887</v>
+        <v>175632</v>
       </c>
     </row>
     <row r="24">
